--- a/Document/Data/Config/DBConfig.xlsx
+++ b/Document/Data/Config/DBConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E53E46-D265-43C3-BAFD-52F9E2E39641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6061823D-3B15-4A8E-8CBF-B18F1C63FE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,6 +507,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
